--- a/Моя робота/Потреба і забезпеченість пальним на марш_Аня фінал.xlsx
+++ b/Моя робота/Потреба і забезпеченість пальним на марш_Аня фінал.xlsx
@@ -442,13 +442,70 @@
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -458,9 +515,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -470,9 +524,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -482,57 +533,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -837,7 +837,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14:O22"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,1058 +853,1071 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7" t="s">
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="7" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="25"/>
+      <c r="H5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7" t="s">
+      <c r="J5" s="25"/>
+      <c r="K5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="11" t="s">
+      <c r="L5" s="25"/>
+      <c r="M5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="11" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="25">
         <v>1</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="11">
+      <c r="C7" s="25"/>
+      <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="2">
         <v>4</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="2">
         <v>5</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="2">
         <v>6</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="2">
         <v>7</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="2">
         <v>8</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="2">
         <v>9</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="2">
         <v>10</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="2">
         <v>11</v>
       </c>
-      <c r="P7" s="3"/>
+      <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18">
+      <c r="C8" s="26"/>
+      <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="5">
         <v>1.9</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="5">
         <v>15.4</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="5">
         <f>G8+E8</f>
         <v>17.3</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="5">
         <v>1</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="5">
         <v>77.599999999999994</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="5">
         <v>1</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="5">
         <v>18.600000000000001</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="5">
         <f>L8+J8</f>
         <v>96.199999999999989</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21">
+      <c r="C9" s="24"/>
+      <c r="D9" s="7">
         <f>D10+D12</f>
         <v>1.33</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="7">
         <f>E10+E12</f>
         <v>2.5270000000000001</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="7">
         <f>F10+F12</f>
         <v>0.94857142857142862</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="7">
         <f>G10+G12</f>
         <v>14.608000000000001</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="7">
         <f>G9+E9</f>
         <v>17.135000000000002</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="7">
         <f>I10+I11+I12</f>
         <v>1.1824742268041237</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="7">
         <f>J10+J11+J12</f>
         <v>91.759999999999991</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="7">
         <v>1.79</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="7">
         <f>K9*L8</f>
         <v>33.294000000000004</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="7">
         <f>M10+M11+M12</f>
         <v>125.24000000000001</v>
       </c>
-      <c r="O9" s="3"/>
+      <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="21">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="7">
         <v>0.8</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="7">
         <f>D10*E8</f>
         <v>1.52</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="7">
         <v>0.6</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="7">
         <f>F10*G8</f>
         <v>9.24</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="7">
         <f>G10+E10</f>
         <v>10.76</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="7">
         <v>0.5</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="7">
         <f>I10*J8</f>
         <v>38.799999999999997</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="7">
         <v>0.9</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="7">
         <f>K10*L8</f>
         <v>16.740000000000002</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="7">
         <f>L10+J10</f>
         <v>55.54</v>
       </c>
-      <c r="O10" s="3"/>
+      <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="21">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="7">
         <f>J11/J8</f>
         <v>0.45076030927835053</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="7">
         <f>M11-L11</f>
         <v>34.978999999999999</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="7">
         <v>0.61</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="7">
         <f>K11*L8</f>
         <v>11.346</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="7">
         <v>46.325000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="21">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="7">
         <v>0.53</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="7">
         <f>D12*E8</f>
         <v>1.0069999999999999</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="7">
         <f>G12/G8</f>
         <v>0.34857142857142859</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="7">
         <f>H12-E12</f>
         <v>5.3680000000000003</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="7">
         <v>6.375</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="7">
         <f>J12/J8</f>
         <v>0.23171391752577322</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="7">
         <f>M12-L12</f>
         <v>17.981000000000002</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="7">
         <v>0.28999999999999998</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="7">
         <f>K12*L8</f>
         <v>5.3940000000000001</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="7">
         <v>23.375</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="21">
+      <c r="C13" s="23"/>
+      <c r="D13" s="7">
         <v>0.1</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="7">
         <f>E8*D13</f>
         <v>0.19</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="7">
         <v>0.1</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="7">
         <f>F13*G8</f>
         <v>1.54</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="7">
         <f>G13+E13</f>
         <v>1.73</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="7">
         <v>0.05</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="7">
         <f>I13*J8</f>
         <v>3.88</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="7">
         <v>0.1</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="7">
         <f>K13*L8</f>
         <v>1.8600000000000003</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="7">
         <f>L13+J13</f>
         <v>5.74</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21">
+      <c r="C14" s="24"/>
+      <c r="D14" s="7">
         <v>2.4</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="7">
         <f>E8*D14</f>
         <v>4.5599999999999996</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="7">
         <v>2.4</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="9">
         <f>G8*F14</f>
         <v>36.96</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="7">
         <f>G14+E14</f>
         <v>41.52</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="7">
         <v>2.4</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="7">
         <f>J8*I14</f>
         <v>186.23999999999998</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="7">
         <v>2.4</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="7">
         <f>K14*L8</f>
         <v>44.64</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="7">
         <f>L14+J14</f>
         <v>230.88</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="21">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="7">
         <v>1.4</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="7">
         <f>E8*D15</f>
         <v>2.6599999999999997</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="7">
         <v>1.4</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="9">
         <f>F15*G8</f>
         <v>21.56</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="7">
         <f t="shared" ref="H15:H17" si="0">G15+E15</f>
         <v>24.22</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="7">
         <v>1.6</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="7">
         <f>I15*J8</f>
         <v>124.16</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="7">
         <v>1.4</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="7">
         <f>K15*L8</f>
         <v>26.04</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="7">
         <f t="shared" ref="M15:M17" si="1">L15+J15</f>
         <v>150.19999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="21">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="7">
         <v>0.15</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="7">
         <f>E8*D16</f>
         <v>0.28499999999999998</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="7">
         <v>0.15</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="9">
         <f>F16*G8</f>
         <v>2.31</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="7">
         <f t="shared" si="0"/>
         <v>2.5950000000000002</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="7">
         <v>0.5</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="7">
         <f>I16*J8</f>
         <v>38.799999999999997</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="7">
         <v>0.15</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="7">
         <f>L8</f>
         <v>18.600000000000001</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="7">
         <f t="shared" si="1"/>
         <v>57.4</v>
       </c>
-      <c r="R16" s="3"/>
+      <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="21">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="7">
         <f>D14-D15-D16</f>
         <v>0.85</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="7">
         <f>E8*D17</f>
         <v>1.615</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="7">
         <f>F14-F15-F16</f>
         <v>0.85</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="9">
         <f>F17*G8</f>
         <v>13.09</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="7">
         <f t="shared" si="0"/>
         <v>14.705</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="7">
         <f t="shared" ref="I17" si="2">I14-I15-I16</f>
         <v>0.29999999999999982</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="7">
         <f>I17*J8</f>
         <v>23.279999999999983</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="7">
         <f>K14-K15-K16</f>
         <v>0.85</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="7">
         <f>K17*L8</f>
         <v>15.81</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="7">
         <f t="shared" si="1"/>
         <v>39.089999999999982</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="21">
+      <c r="C18" s="21"/>
+      <c r="D18" s="7">
         <v>2.4</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="7">
         <f>E8*D18</f>
         <v>4.5599999999999996</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="7">
         <f>F19+F20+F21</f>
         <v>2.484408152088875</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="7">
         <f>G19+G20+G21</f>
         <v>37.749000000000002</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="7">
         <f>H19+H20+H21</f>
         <v>42.308999999999997</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="7">
         <f>I19+I20+I21</f>
         <v>2.4006958762886597</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="7">
         <f>J19+J20+J21</f>
         <v>186.29399999999998</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="7">
         <v>2.4</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="7">
         <f>K18*L8</f>
         <v>44.64</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="7">
         <f>L18+J18</f>
         <v>230.93399999999997</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="21">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="7">
         <v>1.42</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="7">
         <f>D19*E8</f>
         <v>2.698</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="7">
         <v>1.59</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="7">
         <f>F19*G8</f>
         <v>24.486000000000001</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="7">
         <f>G19+E19</f>
         <v>27.184000000000001</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="7">
         <v>1.43</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="7">
         <f>I19*J8</f>
         <v>110.96799999999999</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="7">
         <v>1.56</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="7">
         <f>L8*K19</f>
         <v>29.016000000000002</v>
       </c>
-      <c r="M19" s="21">
-        <f t="shared" ref="M19:M21" si="3">L19+J19</f>
+      <c r="M19" s="7">
+        <f t="shared" ref="M19" si="3">L19+J19</f>
         <v>139.98399999999998</v>
       </c>
-      <c r="S19" s="3"/>
+      <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="21">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="7">
         <v>0.15</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="7">
         <f>E8*D20</f>
         <v>0.28499999999999998</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="7">
         <f>G20/G8</f>
         <v>0.24935064935064932</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="7">
         <f>H20-E20</f>
         <v>3.84</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="7">
         <v>4.125</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="7">
         <f>J20/J8</f>
         <v>0.50077319587628866</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="7">
         <f>M20-L20</f>
         <v>38.86</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="7">
         <v>0.15</v>
       </c>
-      <c r="L20" s="21">
+      <c r="L20" s="7">
         <f>K20*L8</f>
         <v>2.79</v>
       </c>
-      <c r="M20" s="21">
+      <c r="M20" s="7">
         <v>41.65</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="21">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="7">
         <f>D18-D19-D20</f>
         <v>0.83</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="7">
         <f>E8*D21</f>
         <v>1.577</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="7">
         <f>G21/G9</f>
         <v>0.6450575027382256</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="7">
         <f>H21-E21</f>
         <v>9.423</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="7">
         <v>11</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="7">
         <f>J21/J8</f>
         <v>0.46992268041237117</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="7">
         <f>M21-L21</f>
         <v>36.466000000000001</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="7">
         <f>K18-K19-K20</f>
         <v>0.68999999999999984</v>
       </c>
-      <c r="L21" s="21">
+      <c r="L21" s="7">
         <f>K21*L8</f>
         <v>12.833999999999998</v>
       </c>
-      <c r="M21" s="21">
+      <c r="M21" s="7">
         <v>49.3</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="33">
+      <c r="C22" s="22"/>
+      <c r="D22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="11">
         <f>H18-H9-H13</f>
         <v>23.443999999999996</v>
       </c>
-      <c r="I22" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="M22" s="33">
+      <c r="I22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="11">
         <f>M18-M9-M13</f>
         <v>99.953999999999965</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="21">
+      <c r="C23" s="15"/>
+      <c r="D23" s="7">
         <v>0.6</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="7">
         <f>D23*E8</f>
         <v>1.1399999999999999</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="7">
         <v>0.6</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="7">
         <f>F23*G8</f>
         <v>9.24</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="7">
         <f>G23+E23</f>
         <v>10.38</v>
       </c>
-      <c r="I23" s="21">
-        <v>1</v>
-      </c>
-      <c r="J23" s="21">
+      <c r="I23" s="7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J23" s="7">
         <f>I23*J8</f>
-        <v>77.599999999999994</v>
-      </c>
-      <c r="K23" s="21">
+        <v>86.912000000000006</v>
+      </c>
+      <c r="K23" s="7">
         <v>0.96</v>
       </c>
-      <c r="L23" s="21">
+      <c r="L23" s="7">
         <f>K23*L8</f>
         <v>17.856000000000002</v>
       </c>
-      <c r="M23" s="21">
+      <c r="M23" s="7">
         <f>L23+J23</f>
-        <v>95.455999999999989</v>
+        <v>104.768</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="21">
+      <c r="C24" s="15"/>
+      <c r="D24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="7">
         <v>0.8</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="7">
         <f>I24*J8</f>
         <v>62.08</v>
       </c>
-      <c r="K24" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L24" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M24" s="21" t="s">
+      <c r="K24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="21">
+      <c r="C25" s="15"/>
+      <c r="D25" s="7">
         <f>D18-D23</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="E25" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="21">
+      <c r="E25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="7">
         <f>F18-F23</f>
         <v>1.8844081520888749</v>
       </c>
-      <c r="G25" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="21">
+      <c r="G25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="7">
         <f>J25/J8</f>
-        <v>2.2006958762886599</v>
-      </c>
-      <c r="J25" s="21">
+        <v>2.0806958762886598</v>
+      </c>
+      <c r="J25" s="7">
         <f>J18-J23+J24</f>
-        <v>170.774</v>
-      </c>
-      <c r="K25" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L25" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M25" s="21" t="s">
+        <v>161.46199999999999</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="21">
+      <c r="C26" s="15"/>
+      <c r="D26" s="7">
         <v>1.45</v>
       </c>
-      <c r="E26" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="21">
+      <c r="E26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="7">
         <v>1.45</v>
       </c>
-      <c r="G26" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" s="21">
+      <c r="G26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J26" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="K26" s="21">
+      <c r="J26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="7">
         <v>1.45</v>
       </c>
-      <c r="L26" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M26" s="21" t="s">
+      <c r="L26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="21">
+      <c r="C27" s="15"/>
+      <c r="D27" s="7">
         <f>D26-D25</f>
         <v>-0.34999999999999987</v>
       </c>
-      <c r="E27" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="21">
+      <c r="E27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="7">
         <f t="shared" ref="F27" si="4">F26-F25</f>
         <v>-0.43440815208887495</v>
       </c>
-      <c r="G27" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" s="21">
+      <c r="G27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="7">
         <f>I26-I25</f>
-        <v>-6.9587628865974693E-4</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="K27" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L27" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M27" s="21" t="s">
+        <v>0.11930412371134036</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A4:C6"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A1:M3"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
@@ -1921,19 +1934,6 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A4:C6"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
